--- a/session2/data_calibration.xlsx
+++ b/session2/data_calibration.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\5ºano\SCDTR\Projeto\SCDTR-Project\session2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\Desktop\IST\SCDTR\SCDTR-Project\session2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F63CE9B-FEE5-4B18-8487-AEEFCC7D4DAE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7758" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -47,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -97,7 +104,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
@@ -111,7 +118,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -137,7 +143,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -217,7 +223,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -229,7 +235,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>210</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>150</c:v>
@@ -244,7 +250,7 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -259,30 +265,35 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2809.3304552957998</c:v>
+                  <c:v>2771.535580524343</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3325.030772327189</c:v>
+                  <c:v>3285.7142857142835</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3680.3649262559134</c:v>
+                  <c:v>3639.9999999999973</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4191.2499235019841</c:v>
+                  <c:v>4149.3775933609941</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4869.9618763651233</c:v>
+                  <c:v>4826.0869565217372</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7479.171541212836</c:v>
+                  <c:v>7427.5979557069813</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19315.067699119816</c:v>
+                  <c:v>19228.571428571424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1163-43C1-B449-481D75624477}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -351,7 +362,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="364940720"/>
@@ -416,7 +427,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="364947792"/>
@@ -457,7 +468,759 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.1278871391076117E-2"/>
+                  <c:y val="0.10381816856226304"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$E$12:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1760912590556813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8450980400142569</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6989700043360187</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3979400086720377</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$I$12:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.4427204583664008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5166297960033357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5611013836490555</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6179829574251317</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6835951427690645</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8708483880209714</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2839470198737013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3CF5-4DE1-B00C-BFF3BEBEC36C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1352213248"/>
+        <c:axId val="1490494752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1352213248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1490494752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1490494752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1352213248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr i="1"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$E$28:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1760912590556813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8450980400142569</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6989700043360187</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3979400086720377</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$I$28:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.6035447602336532</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6601679202750668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7065894012062106</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7661088322107084</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8164665481258524</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8950578918079537</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3202781006810387</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F2C-4707-ADDC-1547FB0A8B96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1488355552"/>
+        <c:axId val="1411590336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1488355552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1411590336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1411590336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1488355552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -508,6 +1271,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1024,24 +1867,1062 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161244</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:rowOff>53748</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1051,6 +2932,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>461436</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>181620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>489045</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>119417</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1E713D8-0B55-4992-8B0E-F63146774CF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>410985</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>162037</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>278642</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28433</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F348431B-0B52-42D6-BD4A-085FD21F17F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1321,16 +3274,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:I12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="D3:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="90" zoomScaleNormal="56" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D3" t="s">
         <v>0</v>
       </c>
@@ -1350,30 +3303,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D4">
         <v>801</v>
       </c>
       <c r="E4">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="F4">
-        <v>3.91</v>
+        <f>D4*5/1023</f>
+        <v>3.9149560117302054</v>
       </c>
       <c r="G4">
         <f>D4/F4</f>
-        <v>204.85933503836316</v>
+        <v>204.6</v>
       </c>
       <c r="H4">
         <f>D4/G12</f>
-        <v>3.9034046451138553</v>
+        <v>3.9149560117302058</v>
       </c>
       <c r="I4">
         <f>(5-H4)*(10000/H4)</f>
-        <v>2809.3304552957998</v>
+        <v>2771.535580524343</v>
       </c>
     </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D5">
         <v>770</v>
       </c>
@@ -1381,22 +3335,23 @@
         <v>150</v>
       </c>
       <c r="F5">
-        <v>3.77</v>
+        <f t="shared" ref="F5:F10" si="0">D5*5/1023</f>
+        <v>3.763440860215054</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G9" si="0">D5/F5</f>
-        <v>204.24403183023873</v>
+        <f t="shared" ref="G5:G9" si="1">D5/F5</f>
+        <v>204.6</v>
       </c>
       <c r="H5">
         <f>D5/G12</f>
-        <v>3.7523365502342929</v>
+        <v>3.7634408602150544</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I10" si="1">(5-H5)*(10000/H5)</f>
-        <v>3325.030772327189</v>
+        <f t="shared" ref="I5:I10" si="2">(5-H5)*(10000/H5)</f>
+        <v>3285.7142857142835</v>
       </c>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D6">
         <v>750</v>
       </c>
@@ -1404,22 +3359,23 @@
         <v>100</v>
       </c>
       <c r="F6">
-        <v>3.64</v>
+        <f t="shared" si="0"/>
+        <v>3.6656891495601172</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>206.04395604395603</v>
+        <f t="shared" si="1"/>
+        <v>204.6</v>
       </c>
       <c r="H6">
         <f>D6/G12</f>
-        <v>3.6548732632152205</v>
+        <v>3.665689149560118</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
-        <v>3680.3649262559134</v>
+        <f t="shared" si="2"/>
+        <v>3639.9999999999973</v>
       </c>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D7">
         <v>723</v>
       </c>
@@ -1427,22 +3383,23 @@
         <v>70</v>
       </c>
       <c r="F7">
-        <v>3.52</v>
+        <f t="shared" si="0"/>
+        <v>3.533724340175953</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>205.39772727272728</v>
+        <f t="shared" si="1"/>
+        <v>204.6</v>
       </c>
       <c r="H7">
         <f>D7/G12</f>
-        <v>3.5232978257394727</v>
+        <v>3.5337243401759535</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
-        <v>4191.2499235019841</v>
+        <f t="shared" si="2"/>
+        <v>4149.3775933609941</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D8">
         <v>690</v>
       </c>
@@ -1450,45 +3407,47 @@
         <v>50</v>
       </c>
       <c r="F8">
-        <v>3.35</v>
+        <f t="shared" si="0"/>
+        <v>3.372434017595308</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
-        <v>205.97014925373134</v>
+        <f t="shared" si="1"/>
+        <v>204.6</v>
       </c>
       <c r="H8">
         <f>D8/G12</f>
-        <v>3.362483402158003</v>
+        <v>3.3724340175953085</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
-        <v>4869.9618763651233</v>
+        <f t="shared" si="2"/>
+        <v>4826.0869565217372</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D9">
         <v>587</v>
       </c>
       <c r="E9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F9">
-        <v>2.86</v>
+        <f t="shared" si="0"/>
+        <v>2.8690127077223853</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
-        <v>205.24475524475525</v>
+        <f t="shared" si="1"/>
+        <v>204.6</v>
       </c>
       <c r="H9">
         <f>D9/G12</f>
-        <v>2.8605474740097794</v>
+        <v>2.8690127077223857</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
-        <v>7479.171541212836</v>
+        <f t="shared" si="2"/>
+        <v>7427.5979557069813</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D10">
         <v>350</v>
       </c>
@@ -1496,29 +3455,341 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1.71</v>
+        <f t="shared" si="0"/>
+        <v>1.7106549364613881</v>
       </c>
       <c r="G10">
         <f>D10/F10</f>
-        <v>204.67836257309941</v>
+        <v>204.6</v>
       </c>
       <c r="H10">
         <f>D10/G12</f>
-        <v>1.7056075228337695</v>
+        <v>1.7106549364613883</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
-        <v>19315.067699119816</v>
+        <f t="shared" si="2"/>
+        <v>19228.571428571424</v>
       </c>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E12">
+        <f>LOG10(E4)</f>
+        <v>2.3010299956639813</v>
+      </c>
       <c r="G12">
         <f>AVERAGE(G4:G10)</f>
-        <v>205.2054738938387</v>
+        <v>204.59999999999997</v>
+      </c>
+      <c r="I12">
+        <f>LOG10(I4)</f>
+        <v>3.4427204583664008</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E13">
+        <f t="shared" ref="E13:E18" si="3">LOG10(E5)</f>
+        <v>2.1760912590556813</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ref="I13:I18" si="4">LOG10(I5)</f>
+        <v>3.5166297960033357</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>3.5611013836490555</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>1.8450980400142569</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>3.6179829574251317</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>1.6989700043360187</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
+        <v>3.6835951427690645</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>1.3979400086720377</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
+        <v>3.8708483880209714</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>4.2839470198737013</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D20">
+        <v>730</v>
+      </c>
+      <c r="E20">
+        <v>200</v>
+      </c>
+      <c r="F20">
+        <f>D20*5/1023</f>
+        <v>3.5679374389051808</v>
+      </c>
+      <c r="G20">
+        <f>D20/F20</f>
+        <v>204.6</v>
+      </c>
+      <c r="H20">
+        <f>D20/G28</f>
+        <v>3.5679374389051812</v>
+      </c>
+      <c r="I20">
+        <f>(5-H20)*(10000/H20)</f>
+        <v>4013.6986301369848</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D21">
+        <v>702</v>
+      </c>
+      <c r="E21">
+        <v>150</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ref="F21:F26" si="5">D21*5/1023</f>
+        <v>3.4310850439882699</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21:G25" si="6">D21/F21</f>
+        <v>204.6</v>
+      </c>
+      <c r="H21">
+        <f>D21/G28</f>
+        <v>3.4310850439882703</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ref="I21:I26" si="7">(5-H21)*(10000/H21)</f>
+        <v>4572.6495726495705</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D22">
+        <v>678</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="5"/>
+        <v>3.3137829912023462</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="6"/>
+        <v>204.6</v>
+      </c>
+      <c r="H22">
+        <f>D22/G28</f>
+        <v>3.3137829912023467</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="7"/>
+        <v>5088.4955752212363</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D23">
+        <v>646</v>
+      </c>
+      <c r="E23">
+        <v>70</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="5"/>
+        <v>3.1573802541544476</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="6"/>
+        <v>204.60000000000002</v>
+      </c>
+      <c r="H23">
+        <f>D23/G28</f>
+        <v>3.1573802541544485</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="7"/>
+        <v>5835.9133126934948</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D24">
+        <v>618</v>
+      </c>
+      <c r="E24">
+        <v>50</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="5"/>
+        <v>3.0205278592375366</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="6"/>
+        <v>204.6</v>
+      </c>
+      <c r="H24">
+        <f>D24/G28</f>
+        <v>3.0205278592375371</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="7"/>
+        <v>6553.3980582524255</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D25">
+        <v>573</v>
+      </c>
+      <c r="E25">
+        <v>25</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="5"/>
+        <v>2.8005865102639298</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="6"/>
+        <v>204.6</v>
+      </c>
+      <c r="H25">
+        <f>D25/G28</f>
+        <v>2.8005865102639302</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="7"/>
+        <v>7853.4031413612529</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D26">
+        <v>331</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="5"/>
+        <v>1.6177908113391983</v>
+      </c>
+      <c r="G26">
+        <f>D26/F26</f>
+        <v>204.60000000000002</v>
+      </c>
+      <c r="H26">
+        <f>D26/G28</f>
+        <v>1.6177908113391988</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="7"/>
+        <v>20906.344410876125</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E28">
+        <f>LOG10(E20)</f>
+        <v>2.3010299956639813</v>
+      </c>
+      <c r="G28">
+        <f>AVERAGE(G20:G26)</f>
+        <v>204.59999999999997</v>
+      </c>
+      <c r="I28">
+        <f>LOG10(I20)</f>
+        <v>3.6035447602336532</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E29">
+        <f t="shared" ref="E29:E34" si="8">LOG10(E21)</f>
+        <v>2.1760912590556813</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ref="I29:I34" si="9">LOG10(I21)</f>
+        <v>3.6601679202750668</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E30">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="9"/>
+        <v>3.7065894012062106</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E31">
+        <f t="shared" si="8"/>
+        <v>1.8450980400142569</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="9"/>
+        <v>3.7661088322107084</v>
+      </c>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E32">
+        <f t="shared" si="8"/>
+        <v>1.6989700043360187</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="9"/>
+        <v>3.8164665481258524</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E33">
+        <f t="shared" si="8"/>
+        <v>1.3979400086720377</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="9"/>
+        <v>3.8950578918079537</v>
+      </c>
+    </row>
+    <row r="34" spans="5:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E34">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="9"/>
+        <v>4.3202781006810387</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>